--- a/data/trans_dic/P3A$otraSIcobra-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P3A$otraSIcobra-Estudios-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.06674760675572901</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.05858645181397917</v>
+        <v>0.05858645181397915</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03484395812680534</v>
+        <v>0.03307268152829239</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05309582636921689</v>
+        <v>0.05472170388484777</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04991223701860663</v>
+        <v>0.04881702792382722</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0656175897503176</v>
+        <v>0.0636891675637766</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0806022110118876</v>
+        <v>0.081779127783601</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06984810377616793</v>
+        <v>0.07014097893202029</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01120300667854439</v>
+        <v>0.01103961766407238</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0125170051399255</v>
+        <v>0.01239274488496737</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01269892462381432</v>
+        <v>0.01313012516402999</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02469878900560114</v>
+        <v>0.0241294600876294</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02206918756180197</v>
+        <v>0.02111215236248145</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02063485209980477</v>
+        <v>0.02107900045393411</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.06240805277149215</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.05924696411180669</v>
+        <v>0.05924696411180667</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04199097724058744</v>
+        <v>0.04083340954001453</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04824012504978874</v>
+        <v>0.04838788647440886</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04892224222825663</v>
+        <v>0.04865663228533341</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07681840883983895</v>
+        <v>0.07455469672965589</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07880975546687578</v>
+        <v>0.07808241334284063</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07063201132523508</v>
+        <v>0.07250221233525442</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.02928432802990315</v>
+        <v>0.02928432802990316</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.0366117297254017</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.03305292102911435</v>
+        <v>0.03305292102911436</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02378252408722814</v>
+        <v>0.02396271548333296</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03216963360220699</v>
+        <v>0.03177444873783603</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02948133269702173</v>
+        <v>0.02966244924122389</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0352082485021967</v>
+        <v>0.03538039994882465</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04198352500399733</v>
+        <v>0.04175626266915804</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03720568310931611</v>
+        <v>0.03695491537125567</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>20158</v>
+        <v>19134</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>43647</v>
+        <v>44983</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>69905</v>
+        <v>68372</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>37962</v>
+        <v>36846</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>66258</v>
+        <v>67226</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>97827</v>
+        <v>98237</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>24977</v>
+        <v>24613</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>27164</v>
+        <v>26894</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>55870</v>
+        <v>57768</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>55065</v>
+        <v>53796</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>47893</v>
+        <v>45816</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>90786</v>
+        <v>92740</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>29880</v>
+        <v>29057</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>35451</v>
+        <v>35559</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>70764</v>
+        <v>70380</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>54663</v>
+        <v>53052</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>57915</v>
+        <v>57381</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>102167</v>
+        <v>104872</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>83705</v>
+        <v>84339</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>119898</v>
+        <v>118425</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>213641</v>
+        <v>214953</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>123919</v>
+        <v>124525</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>156475</v>
+        <v>155628</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>269617</v>
+        <v>267799</v>
       </c>
     </row>
     <row r="20">
